--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/20/seed3/result_data_RandomForest.xlsx
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.676199999999997</v>
+        <v>-7.7135</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.8787</v>
+        <v>-7.891699999999997</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,10 +553,10 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.45329999999999</v>
+        <v>-11.19769999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.743200000000002</v>
+        <v>-7.755999999999996</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.11099999999999</v>
+        <v>-20.95130000000001</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.046400000000004</v>
+        <v>-7.993100000000002</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.092400000000005</v>
+        <v>-8.176000000000005</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.49899999999999</v>
+        <v>-20.49489999999998</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.441199999999998</v>
+        <v>-6.523699999999998</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.54180000000003</v>
+        <v>-22.56430000000004</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.302600000000005</v>
+        <v>-8.329300000000007</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>6.195399999999999</v>
+        <v>6.183199999999999</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.46120000000003</v>
+        <v>-22.52230000000004</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-15.19419999999999</v>
+        <v>-15.01009999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.17070000000003</v>
+        <v>-22.25800000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
